--- a/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/StructureDefinition-no-basis-Practitioner.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Practitioner</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -774,7 +774,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-HumanName}
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
@@ -834,7 +834,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>

--- a/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/StructureDefinition-no-basis-Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-no-basis-Practitioner.xlsx
+++ b/StructureDefinition-no-basis-Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
